--- a/NetAgent/src/main/resources/Downloads/NAQuarantine.xlsx
+++ b/NetAgent/src/main/resources/Downloads/NAQuarantine.xlsx
@@ -26683,99 +26683,305 @@
       </c>
     </row>
     <row r="95" ht="18" customHeight="0">
-      <c s="10" t="inlineStr" r="A95">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
+      <c s="9" r="A95">
+        <v>8797</v>
       </c>
       <c s="10" t="inlineStr" r="D95">
         <is>
-          <t xml:space="preserve"/>
+          <t xml:space="preserve">AUTOMATION RV</t>
         </is>
       </c>
       <c s="10" t="inlineStr" r="F95">
         <is>
-          <t xml:space="preserve"/>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve"> </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">Part 3</t>
+          </r>
         </is>
       </c>
       <c s="10" t="inlineStr" r="I95">
         <is>
-          <t xml:space="preserve"/>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve"> </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">MN03</t>
+          </r>
         </is>
       </c>
       <c s="10" t="inlineStr" r="J95">
         <is>
-          <t xml:space="preserve"/>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve"> </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">04/01/2031</t>
+          </r>
         </is>
       </c>
       <c s="10" t="inlineStr" r="K95">
         <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="12" t="inlineStr" r="L95">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="12" t="inlineStr" r="N95">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve"> </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">LB03</t>
+          </r>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="L95">
+        <is>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve"> </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">sdfg</t>
+          </r>
+        </is>
+      </c>
+      <c s="11" r="N95">
+        <v>1.000</v>
       </c>
       <c s="10" t="inlineStr" r="O95">
         <is>
-          <t xml:space="preserve"/>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">  </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">DEFAULTBIN</t>
+          </r>
         </is>
       </c>
       <c s="10" t="inlineStr" r="P95">
         <is>
-          <t xml:space="preserve"/>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve"> </t>
+          </r>
         </is>
       </c>
       <c s="10" t="inlineStr" r="Q95">
         <is>
-          <t xml:space="preserve"/>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve"> </t>
+          </r>
         </is>
       </c>
       <c s="10" t="inlineStr" r="R95">
         <is>
-          <t xml:space="preserve"/>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">selenium.automation</t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">         </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">08/16/2023</t>
+          </r>
         </is>
       </c>
       <c s="10" t="inlineStr" r="S95">
         <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="10" t="inlineStr" r="T95">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
+          <t xml:space="preserve">Stock Expired</t>
+        </is>
+      </c>
+      <c s="10" t="str" r="T95"/>
       <c s="10" t="inlineStr" r="U95">
         <is>
-          <t xml:space="preserve"/>
+          <t xml:space="preserve">WOI - 1771365</t>
         </is>
       </c>
       <c s="10" t="inlineStr" r="V95">
         <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="10" t="inlineStr" r="W95">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve"> </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">Inbound</t>
+          </r>
+        </is>
+      </c>
+      <c s="10" t="str" r="W95"/>
       <c s="10" t="inlineStr" r="X95">
         <is>
-          <t xml:space="preserve"/>
+          <t xml:space="preserve">SDFG</t>
         </is>
       </c>
       <c s="10" t="inlineStr" r="Y95">
         <is>
-          <t xml:space="preserve"/>
+          <t xml:space="preserve">asdfb</t>
         </is>
       </c>
     </row>
@@ -26812,11 +27018,13 @@
       </c>
       <c s="12" t="inlineStr" r="L96">
         <is>
-          <t xml:space="preserve">SubTotal :</t>
-        </is>
-      </c>
-      <c s="13" r="N96">
-        <v>83.000</v>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="12" t="inlineStr" r="N96">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
       </c>
       <c s="10" t="inlineStr" r="O96">
         <is>
@@ -26907,63 +27115,158 @@
       </c>
       <c s="12" t="inlineStr" r="L97">
         <is>
+          <t xml:space="preserve">SubTotal :</t>
+        </is>
+      </c>
+      <c s="13" r="N97">
+        <v>84.000</v>
+      </c>
+      <c s="10" t="inlineStr" r="O97">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="P97">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="Q97">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="R97">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="S97">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="T97">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="U97">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="V97">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="W97">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="X97">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="Y97">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+    </row>
+    <row r="98" ht="18" customHeight="0">
+      <c s="10" t="inlineStr" r="A98">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="D98">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="F98">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="I98">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="J98">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="K98">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="12" t="inlineStr" r="L98">
+        <is>
           <t xml:space="preserve">Total :</t>
         </is>
       </c>
-      <c s="13" r="N97">
-        <v>83.000</v>
-      </c>
-      <c s="10" t="inlineStr" r="O97">
+      <c s="13" r="N98">
+        <v>84.000</v>
+      </c>
+      <c s="10" t="inlineStr" r="O98">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="10" t="inlineStr" r="P97">
+      <c s="10" t="inlineStr" r="P98">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="10" t="inlineStr" r="Q97">
+      <c s="10" t="inlineStr" r="Q98">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="10" t="inlineStr" r="R97">
+      <c s="10" t="inlineStr" r="R98">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="10" t="inlineStr" r="S97">
+      <c s="10" t="inlineStr" r="S98">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="10" t="inlineStr" r="T97">
+      <c s="10" t="inlineStr" r="T98">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="10" t="inlineStr" r="U97">
+      <c s="10" t="inlineStr" r="U98">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="10" t="inlineStr" r="V97">
+      <c s="10" t="inlineStr" r="V98">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="10" t="inlineStr" r="W97">
+      <c s="10" t="inlineStr" r="W98">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="10" t="inlineStr" r="X97">
+      <c s="10" t="inlineStr" r="X98">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="10" t="inlineStr" r="Y97">
+      <c s="10" t="inlineStr" r="Y98">
         <is>
           <t xml:space="preserve"/>
         </is>
@@ -27324,13 +27627,17 @@
     <mergeCell ref="D97:E97"/>
     <mergeCell ref="F97:H97"/>
     <mergeCell ref="L97:M97"/>
+    <mergeCell ref="A98:C98"/>
+    <mergeCell ref="D98:E98"/>
+    <mergeCell ref="F98:H98"/>
+    <mergeCell ref="L98:M98"/>
   </mergeCells>
   <pageMargins left="0.75" right="0" top="0.75" bottom="1.4375" header="0.75" footer="0.75"/>
   <pageSetup paperSize="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;L&amp;"Arial,Regular"&amp;9 *Data provided should be considered CONFIDENTIAL and PROPRIETARY* 
 &amp;"-,Regular"©2011-2023 MNX Global Logistics. All rights reserved. 
-&amp;"-,Regular"5/30/2023 10:12 PM 
+&amp;"-,Regular"8/24/2023 11:02 PM 
 &amp;"-,Regular"Print User : selenium.automation &amp;R&amp;"Arial,Regular"&amp;9Pag</oddFooter>
   </headerFooter>
   <drawing r:id="rId7"/>
